--- a/sprints/sprint 2/Sprint 2 Backlog.xlsx
+++ b/sprints/sprint 2/Sprint 2 Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csuser\source\repos\CapstoneProject\sprints\sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51E4A9-009B-41E4-ACF8-533A17758B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619A4D1-5B4D-422F-909A-70386C6B5769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,15 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,17 +390,17 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" customWidth="1"/>
-    <col min="4" max="4" width="41.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,303 +416,306 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D33">
+    <sortCondition ref="C2:C33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>